--- a/results/mp/tinybert/home-spam/confidence/168/stop-words-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/168/stop-words-0.35/avg_0.004_scores.xlsx
@@ -52,87 +52,81 @@
     <t>loves</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>wonderful</t>
+    <t>beautiful</t>
   </si>
   <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>beautiful</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>salad</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>kids</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>cakes</t>
   </si>
   <si>
     <t>husband</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>cakes</t>
+    <t>cake</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>cake</t>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>cheese</t>
   </si>
   <si>
     <t>daughter</t>
   </si>
   <si>
+    <t>cooke</t>
+  </si>
+  <si>
     <t>sturdy</t>
   </si>
   <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
     <t>ze</t>
   </si>
   <si>
@@ -145,51 +139,51 @@
     <t>popcorn</t>
   </si>
   <si>
+    <t>perfectly</t>
+  </si>
+  <si>
     <t>bread</t>
   </si>
   <si>
     <t>gift</t>
   </si>
   <si>
-    <t>perfectly</t>
+    <t>nice</t>
   </si>
   <si>
     <t>years</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>easy</t>
   </si>
   <si>
     <t>old</t>
   </si>
   <si>
-    <t>tea</t>
+    <t>day</t>
   </si>
   <si>
     <t>cooking</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
     <t>highly</t>
   </si>
   <si>
-    <t>cook</t>
-  </si>
-  <si>
     <t>kitchen</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>pan</t>
   </si>
   <si>
@@ -205,40 +199,46 @@
     <t>recommend</t>
   </si>
   <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
     <t>bought</t>
   </si>
   <si>
     <t>coffee</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>hot</t>
+    <t>makes</t>
   </si>
   <si>
     <t>clean</t>
   </si>
   <si>
-    <t>makes</t>
+    <t>quality</t>
   </si>
   <si>
     <t>make</t>
   </si>
   <si>
-    <t>quality</t>
+    <t>like</t>
   </si>
   <si>
     <t>really</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
     <t>one</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>buy</t>
   </si>
   <si>
     <t>time</t>
@@ -674,13 +674,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.2325581395348837</v>
+        <v>0.2945736434108527</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>10</v>
@@ -724,13 +724,13 @@
         <v>11</v>
       </c>
       <c r="K4">
-        <v>0.9354838709677419</v>
+        <v>0.9247311827956989</v>
       </c>
       <c r="L4">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M4">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -750,13 +750,13 @@
         <v>12</v>
       </c>
       <c r="K5">
-        <v>0.8828125</v>
+        <v>0.8840579710144928</v>
       </c>
       <c r="L5">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="M5">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -776,13 +776,13 @@
         <v>13</v>
       </c>
       <c r="K6">
-        <v>0.8498452012383901</v>
+        <v>0.859375</v>
       </c>
       <c r="L6">
-        <v>549</v>
+        <v>110</v>
       </c>
       <c r="M6">
-        <v>549</v>
+        <v>110</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>97</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -828,13 +828,13 @@
         <v>15</v>
       </c>
       <c r="K8">
-        <v>0.8405797101449275</v>
+        <v>0.8405572755417957</v>
       </c>
       <c r="L8">
-        <v>58</v>
+        <v>543</v>
       </c>
       <c r="M8">
-        <v>58</v>
+        <v>543</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>11</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -854,13 +854,13 @@
         <v>16</v>
       </c>
       <c r="K9">
-        <v>0.7662337662337663</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="L9">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="M9">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -872,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -880,13 +880,13 @@
         <v>17</v>
       </c>
       <c r="K10">
-        <v>0.75</v>
+        <v>0.7532467532467533</v>
       </c>
       <c r="L10">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="M10">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -906,13 +906,13 @@
         <v>18</v>
       </c>
       <c r="K11">
-        <v>0.7272727272727273</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L11">
-        <v>168</v>
+        <v>33</v>
       </c>
       <c r="M11">
-        <v>168</v>
+        <v>33</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>63</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -932,13 +932,13 @@
         <v>19</v>
       </c>
       <c r="K12">
-        <v>0.7142857142857143</v>
+        <v>0.726027397260274</v>
       </c>
       <c r="L12">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="M12">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -958,13 +958,13 @@
         <v>20</v>
       </c>
       <c r="K13">
-        <v>0.6949152542372882</v>
+        <v>0.7186147186147186</v>
       </c>
       <c r="L13">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="M13">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -976,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -984,13 +984,13 @@
         <v>21</v>
       </c>
       <c r="K14">
-        <v>0.6888888888888889</v>
+        <v>0.676056338028169</v>
       </c>
       <c r="L14">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="M14">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1010,13 +1010,13 @@
         <v>22</v>
       </c>
       <c r="K15">
-        <v>0.6842105263157895</v>
+        <v>0.6677966101694915</v>
       </c>
       <c r="L15">
-        <v>39</v>
+        <v>197</v>
       </c>
       <c r="M15">
-        <v>39</v>
+        <v>197</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>18</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1036,13 +1036,13 @@
         <v>23</v>
       </c>
       <c r="K16">
-        <v>0.676056338028169</v>
+        <v>0.6530612244897959</v>
       </c>
       <c r="L16">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M16">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1062,13 +1062,13 @@
         <v>24</v>
       </c>
       <c r="K17">
-        <v>0.6712328767123288</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L17">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="M17">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1088,13 +1088,13 @@
         <v>25</v>
       </c>
       <c r="K18">
-        <v>0.6323529411764706</v>
+        <v>0.6380417335473515</v>
       </c>
       <c r="L18">
-        <v>43</v>
+        <v>795</v>
       </c>
       <c r="M18">
-        <v>43</v>
+        <v>795</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>25</v>
+        <v>451</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1114,13 +1114,13 @@
         <v>26</v>
       </c>
       <c r="K19">
-        <v>0.6316211878009631</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L19">
-        <v>787</v>
+        <v>40</v>
       </c>
       <c r="M19">
-        <v>787</v>
+        <v>40</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1132,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>459</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1140,13 +1140,13 @@
         <v>27</v>
       </c>
       <c r="K20">
-        <v>0.6041666666666666</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L20">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="M20">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1166,7 +1166,7 @@
         <v>28</v>
       </c>
       <c r="K21">
-        <v>0.6</v>
+        <v>0.609375</v>
       </c>
       <c r="L21">
         <v>39</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1192,13 +1192,13 @@
         <v>29</v>
       </c>
       <c r="K22">
-        <v>0.5972222222222222</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="L22">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="M22">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1210,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1218,13 +1218,13 @@
         <v>30</v>
       </c>
       <c r="K23">
-        <v>0.5846153846153846</v>
+        <v>0.5961538461538461</v>
       </c>
       <c r="L23">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="M23">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1236,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1244,13 +1244,13 @@
         <v>31</v>
       </c>
       <c r="K24">
-        <v>0.578125</v>
+        <v>0.5942857142857143</v>
       </c>
       <c r="L24">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="M24">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>27</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1270,13 +1270,13 @@
         <v>32</v>
       </c>
       <c r="K25">
-        <v>0.5771428571428572</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="L25">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="M25">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>74</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1296,13 +1296,13 @@
         <v>33</v>
       </c>
       <c r="K26">
-        <v>0.5769230769230769</v>
+        <v>0.5421686746987951</v>
       </c>
       <c r="L26">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="M26">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1322,13 +1322,13 @@
         <v>34</v>
       </c>
       <c r="K27">
-        <v>0.5714285714285714</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L27">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M27">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1340,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1348,13 +1348,13 @@
         <v>35</v>
       </c>
       <c r="K28">
-        <v>0.5389221556886228</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="L28">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="M28">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>77</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1374,13 +1374,13 @@
         <v>36</v>
       </c>
       <c r="K29">
-        <v>0.5180722891566265</v>
+        <v>0.5089820359281437</v>
       </c>
       <c r="L29">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="M29">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>40</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1400,13 +1400,13 @@
         <v>37</v>
       </c>
       <c r="K30">
-        <v>0.5079365079365079</v>
+        <v>0.4938271604938271</v>
       </c>
       <c r="L30">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="M30">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1426,13 +1426,13 @@
         <v>38</v>
       </c>
       <c r="K31">
-        <v>0.5042735042735043</v>
+        <v>0.4918032786885246</v>
       </c>
       <c r="L31">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="M31">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>58</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1452,13 +1452,13 @@
         <v>39</v>
       </c>
       <c r="K32">
-        <v>0.4938271604938271</v>
+        <v>0.481203007518797</v>
       </c>
       <c r="L32">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="M32">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1478,13 +1478,13 @@
         <v>40</v>
       </c>
       <c r="K33">
-        <v>0.4754098360655737</v>
+        <v>0.4605263157894737</v>
       </c>
       <c r="L33">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M33">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1504,13 +1504,13 @@
         <v>41</v>
       </c>
       <c r="K34">
-        <v>0.4661654135338346</v>
+        <v>0.4605263157894737</v>
       </c>
       <c r="L34">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="M34">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>71</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1530,13 +1530,13 @@
         <v>42</v>
       </c>
       <c r="K35">
-        <v>0.4342105263157895</v>
+        <v>0.44</v>
       </c>
       <c r="L35">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="M35">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1556,13 +1556,13 @@
         <v>43</v>
       </c>
       <c r="K36">
-        <v>0.43</v>
+        <v>0.4156626506024096</v>
       </c>
       <c r="L36">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="M36">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1574,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>57</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1582,13 +1582,13 @@
         <v>44</v>
       </c>
       <c r="K37">
-        <v>0.4216867469879518</v>
+        <v>0.3774509803921569</v>
       </c>
       <c r="L37">
-        <v>70</v>
+        <v>154</v>
       </c>
       <c r="M37">
-        <v>70</v>
+        <v>154</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1600,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>96</v>
+        <v>254</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1608,13 +1608,13 @@
         <v>45</v>
       </c>
       <c r="K38">
-        <v>0.4078947368421053</v>
+        <v>0.3346303501945525</v>
       </c>
       <c r="L38">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="M38">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>45</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1634,13 +1634,13 @@
         <v>46</v>
       </c>
       <c r="K39">
-        <v>0.3657587548638132</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L39">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="M39">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>163</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1660,13 +1660,13 @@
         <v>47</v>
       </c>
       <c r="K40">
-        <v>0.3480392156862745</v>
+        <v>0.3309352517985611</v>
       </c>
       <c r="L40">
-        <v>142</v>
+        <v>46</v>
       </c>
       <c r="M40">
-        <v>142</v>
+        <v>46</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1678,7 +1678,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>266</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1686,13 +1686,13 @@
         <v>48</v>
       </c>
       <c r="K41">
-        <v>0.3458646616541353</v>
+        <v>0.326027397260274</v>
       </c>
       <c r="L41">
-        <v>46</v>
+        <v>238</v>
       </c>
       <c r="M41">
-        <v>46</v>
+        <v>238</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>87</v>
+        <v>492</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1712,13 +1712,13 @@
         <v>49</v>
       </c>
       <c r="K42">
-        <v>0.3453237410071943</v>
+        <v>0.3007518796992481</v>
       </c>
       <c r="L42">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="M42">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1730,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1738,13 +1738,13 @@
         <v>50</v>
       </c>
       <c r="K43">
-        <v>0.3333333333333333</v>
+        <v>0.2871287128712871</v>
       </c>
       <c r="L43">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="M43">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1756,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1764,13 +1764,13 @@
         <v>51</v>
       </c>
       <c r="K44">
-        <v>0.3178082191780822</v>
+        <v>0.2792792792792793</v>
       </c>
       <c r="L44">
-        <v>232</v>
+        <v>31</v>
       </c>
       <c r="M44">
-        <v>232</v>
+        <v>31</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>498</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1790,13 +1790,13 @@
         <v>52</v>
       </c>
       <c r="K45">
-        <v>0.2952380952380952</v>
+        <v>0.2612612612612613</v>
       </c>
       <c r="L45">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M45">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1808,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1816,13 +1816,13 @@
         <v>53</v>
       </c>
       <c r="K46">
-        <v>0.2792792792792793</v>
+        <v>0.2583732057416268</v>
       </c>
       <c r="L46">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="M46">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>80</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1842,13 +1842,13 @@
         <v>54</v>
       </c>
       <c r="K47">
-        <v>0.2777777777777778</v>
+        <v>0.2508073196986007</v>
       </c>
       <c r="L47">
-        <v>30</v>
+        <v>233</v>
       </c>
       <c r="M47">
-        <v>30</v>
+        <v>233</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1860,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>78</v>
+        <v>696</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1868,13 +1868,13 @@
         <v>55</v>
       </c>
       <c r="K48">
-        <v>0.2679425837320574</v>
+        <v>0.2384105960264901</v>
       </c>
       <c r="L48">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="M48">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>153</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1894,13 +1894,13 @@
         <v>56</v>
       </c>
       <c r="K49">
-        <v>0.2649006622516556</v>
+        <v>0.2288401253918495</v>
       </c>
       <c r="L49">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="M49">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>111</v>
+        <v>246</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1920,13 +1920,13 @@
         <v>57</v>
       </c>
       <c r="K50">
-        <v>0.2572658772874058</v>
+        <v>0.2214765100671141</v>
       </c>
       <c r="L50">
-        <v>239</v>
+        <v>33</v>
       </c>
       <c r="M50">
-        <v>239</v>
+        <v>33</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -1938,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>690</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -1946,25 +1946,25 @@
         <v>58</v>
       </c>
       <c r="K51">
-        <v>0.231974921630094</v>
+        <v>0.2095490716180371</v>
       </c>
       <c r="L51">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="M51">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>245</v>
+        <v>596</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -1972,13 +1972,13 @@
         <v>59</v>
       </c>
       <c r="K52">
-        <v>0.2214765100671141</v>
+        <v>0.2046035805626598</v>
       </c>
       <c r="L52">
-        <v>33</v>
+        <v>160</v>
       </c>
       <c r="M52">
-        <v>33</v>
+        <v>160</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -1990,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>116</v>
+        <v>622</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -1998,25 +1998,25 @@
         <v>60</v>
       </c>
       <c r="K53">
-        <v>0.2026490066225166</v>
+        <v>0.1675675675675676</v>
       </c>
       <c r="L53">
-        <v>153</v>
+        <v>62</v>
       </c>
       <c r="M53">
-        <v>153</v>
+        <v>63</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>602</v>
+        <v>308</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2024,13 +2024,13 @@
         <v>61</v>
       </c>
       <c r="K54">
-        <v>0.190537084398977</v>
+        <v>0.1615120274914089</v>
       </c>
       <c r="L54">
-        <v>149</v>
+        <v>47</v>
       </c>
       <c r="M54">
-        <v>149</v>
+        <v>47</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>633</v>
+        <v>244</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2050,25 +2050,25 @@
         <v>62</v>
       </c>
       <c r="K55">
-        <v>0.1617250673854447</v>
+        <v>0.145631067961165</v>
       </c>
       <c r="L55">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="M55">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
-        <v>311</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2076,13 +2076,13 @@
         <v>63</v>
       </c>
       <c r="K56">
-        <v>0.145985401459854</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L56">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="M56">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2094,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>351</v>
+        <v>174</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2102,13 +2102,13 @@
         <v>64</v>
       </c>
       <c r="K57">
-        <v>0.1409090909090909</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L57">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="M57">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>378</v>
+        <v>204</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2128,13 +2128,13 @@
         <v>65</v>
       </c>
       <c r="K58">
-        <v>0.1374570446735395</v>
+        <v>0.1411192214111922</v>
       </c>
       <c r="L58">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="M58">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>251</v>
+        <v>353</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2154,25 +2154,25 @@
         <v>66</v>
       </c>
       <c r="K59">
-        <v>0.134453781512605</v>
+        <v>0.132118451025057</v>
       </c>
       <c r="L59">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="M59">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59">
-        <v>206</v>
+        <v>381</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2180,13 +2180,13 @@
         <v>67</v>
       </c>
       <c r="K60">
-        <v>0.131578947368421</v>
+        <v>0.1291512915129151</v>
       </c>
       <c r="L60">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="M60">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2198,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>396</v>
+        <v>236</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2206,25 +2206,25 @@
         <v>68</v>
       </c>
       <c r="K61">
-        <v>0.1296296296296296</v>
+        <v>0.1162280701754386</v>
       </c>
       <c r="L61">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="M61">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="N61">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>235</v>
+        <v>403</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2232,13 +2232,13 @@
         <v>69</v>
       </c>
       <c r="K62">
-        <v>0.1259259259259259</v>
+        <v>0.1145584725536993</v>
       </c>
       <c r="L62">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="M62">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>236</v>
+        <v>371</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2258,13 +2258,13 @@
         <v>70</v>
       </c>
       <c r="K63">
-        <v>0.1121718377088305</v>
+        <v>0.1074074074074074</v>
       </c>
       <c r="L63">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="M63">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2276,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>372</v>
+        <v>241</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2284,25 +2284,25 @@
         <v>71</v>
       </c>
       <c r="K64">
-        <v>0.09289617486338798</v>
+        <v>0.09051724137931035</v>
       </c>
       <c r="L64">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="M64">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
-        <v>332</v>
+        <v>633</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2310,25 +2310,25 @@
         <v>72</v>
       </c>
       <c r="K65">
-        <v>0.08691588785046729</v>
+        <v>0.07923497267759563</v>
       </c>
       <c r="L65">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="M65">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="N65">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O65">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>977</v>
+        <v>337</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2336,25 +2336,25 @@
         <v>73</v>
       </c>
       <c r="K66">
-        <v>0.08034433285509325</v>
+        <v>0.0737913486005089</v>
       </c>
       <c r="L66">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="M66">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="N66">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="O66">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P66" t="b">
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>641</v>
+        <v>364</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2362,25 +2362,25 @@
         <v>74</v>
       </c>
       <c r="K67">
-        <v>0.07360406091370558</v>
+        <v>0.07282913165266107</v>
       </c>
       <c r="L67">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="M67">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67">
-        <v>365</v>
+        <v>993</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2388,25 +2388,25 @@
         <v>75</v>
       </c>
       <c r="K68">
-        <v>0.06642066420664207</v>
+        <v>0.06654343807763401</v>
       </c>
       <c r="L68">
         <v>36</v>
       </c>
       <c r="M68">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2414,13 +2414,13 @@
         <v>76</v>
       </c>
       <c r="K69">
-        <v>0.04419410745233969</v>
+        <v>0.04332755632582323</v>
       </c>
       <c r="L69">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M69">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N69">
         <v>0.9399999999999999</v>
@@ -2432,7 +2432,7 @@
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>1103</v>
+        <v>1104</v>
       </c>
     </row>
   </sheetData>
